--- a/src/main/resources/keywords/mtxshop.xlsx
+++ b/src/main/resources/keywords/mtxshop.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="0">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -160,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -350,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +553,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -823,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -848,6 +858,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1200,8 +1235,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.775" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.775" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:4">
@@ -1228,7 +1263,7 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1242,7 +1277,7 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1256,7 +1291,7 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1277,11 +1312,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.225" customWidth="1"/>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="89.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="35.5583333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.225" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.3333333333333" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="89.6666666666667" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.5583333333333" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1312,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1327,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1342,7 +1377,7 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1359,7 +1394,7 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1376,7 +1411,7 @@
       <c r="D6" s="5">
         <v>123456</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1391,7 +1426,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1406,7 +1441,7 @@
       <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1421,7 +1456,7 @@
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1445,11 +1480,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="111.875" customWidth="1"/>
-    <col min="4" max="4" width="28.775" customWidth="1"/>
-    <col min="5" max="5" width="41.4416666666667" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.1083333333333" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="111.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.775" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="41.4416666666667" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1480,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1495,7 +1530,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1510,7 +1545,7 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1525,7 +1560,7 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1540,7 +1575,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1555,7 +1590,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1570,7 +1605,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1585,7 +1620,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1600,7 +1635,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1615,7 +1650,7 @@
       <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1639,11 +1674,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="70.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="26.775" customWidth="1"/>
-    <col min="5" max="5" width="14.775" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.8916666666667" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.6666666666667" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="70.8916666666667" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.775" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.775" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1674,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1689,7 +1724,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1704,7 +1739,7 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1719,7 +1754,7 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="33" t="s">
         <v>6</v>
       </c>
     </row>
